--- a/file/my-task.xlsx
+++ b/file/my-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KPI-Tracker\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD71066-C6E7-4B0C-BDD7-F600EEE31659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDE9C7-098B-4D40-8956-FB9C7C31C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Tên chỉ tiêu*</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Giảng dạy</t>
+  </si>
+  <si>
+    <t>Nhập môn công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Trí tuệ nhân tạo.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,9 +479,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,18 +488,38 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
